--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -2764,7 +2764,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>PICK #879 RX ONLY, MILWAUKEE-35TH &amp; NORTH</t>
+          <t>PICK #845 RX ONLY, MILWAUKEE-LOOMIS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2819,7 +2819,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2355 N 35TH STREET</t>
+          <t>3701 S 27TH ST</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6NcR4utzrJq</t>
+          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2932,11 +2932,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -2991,13 +2987,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3038,10 +3042,14 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>PICK #845 RX ONLY, MILWAUKEE-LOOMIS</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3090,11 +3098,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3701 S 27TH ST</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -3142,11 +3146,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/BLy8vMxXBsA2</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -3253,21 +3253,9 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
@@ -3304,16 +3292,8 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -3042,16 +3042,8 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Leyna</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4387,21 +4387,9 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
@@ -4490,7 +4478,11 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4519,7 +4511,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4554,7 +4546,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4593,7 +4585,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4632,7 +4624,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4667,7 +4659,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4702,7 +4694,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4733,7 +4725,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA VISION #1162, SUMMIT</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4776,7 +4768,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>AURORA VISION #1162, SUMMIT</t>
+          <t>36500 AURORA DR  SUITE 130</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4807,7 +4799,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>36500 AURORA DR  SUITE 130</t>
+          <t>https://goo.gl/maps/uVd8GmA8otk</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4836,11 +4828,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/uVd8GmA8otk</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4866,9 +4854,21 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -4895,19 +4895,15 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -4932,16 +4928,8 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -4995,7 +4983,11 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -5024,7 +5016,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5055,7 +5047,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5086,7 +5078,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
+          <t>1575 N RIVERCENTER DRIVE</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5117,7 +5109,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1575 N RIVERCENTER DRIVE</t>
+          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5146,11 +5138,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -5176,9 +5164,21 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -5205,19 +5205,15 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -5233,41 +5229,6 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:Y102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4659,7 +4659,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGHT EMERGENCY ENTRANCE, CLINIC DOORS OPEN AT 6:00 AM</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4725,7 +4725,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>AURORA VISION #1162, SUMMIT</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4768,7 +4768,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>36500 AURORA DR  SUITE 130</t>
+          <t>AURORA VISION #1162, SUMMIT</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4799,7 +4799,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+          <t>36500 AURORA DR  SUITE 130</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4828,7 +4828,11 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -4854,21 +4858,9 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -4895,15 +4887,19 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -4928,8 +4924,16 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -4983,11 +4987,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -5016,7 +5016,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5047,7 +5047,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>1575 N RIVERCENTER DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5109,7 +5109,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
+          <t>1575 N RIVERCENTER DRIVE</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5138,7 +5138,11 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -5164,21 +5168,9 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
@@ -5205,15 +5197,19 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -5229,6 +5225,41 @@
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y102"/>
+  <dimension ref="A1:Y103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2967,7 +2967,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -4511,7 +4511,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4554,7 +4554,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -5047,7 +5047,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5260,6 +5260,45 @@
       <c r="X102" t="inlineStr"/>
       <c r="Y102" t="inlineStr"/>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>@ Store (train Ian, bring Modas equip)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -3622,7 +3622,11 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Until 10:00</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y103"/>
+  <dimension ref="A1:Y105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2886,13 +2886,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -2942,13 +2941,13 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3003,9 +3002,22 @@
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3046,9 +3058,21 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
@@ -3094,11 +3118,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -3142,11 +3162,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
@@ -3201,7 +3217,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3252,7 +3268,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>250 W HOLT AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3291,7 +3307,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
+          <t>PICK #878 +RX, MILWAUKEE-HOLT</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3326,7 +3342,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>SETUP ON REG #1</t>
+          <t>250 W HOLT AVE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3361,7 +3377,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>FEW RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/Cym6uGHHdf92</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3400,7 +3416,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5:30 am meet for Grafton crew</t>
+          <t>SETUP ON REG #1</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3437,7 +3453,11 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>FEW RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3471,21 +3491,13 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>5:30 am meet for Grafton crew</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
@@ -3518,16 +3530,8 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3559,17 +3563,17 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>White Camry available, Equip</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3614,19 +3618,15 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Until 10:00</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
@@ -3661,17 +3661,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
@@ -3724,18 +3724,17 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>work w/ Jerry D,
-Rx</t>
+          <t>Until 10:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
@@ -3789,15 +3788,19 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
@@ -3845,15 +3848,20 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>work w/ Jerry D,
+Rx</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
@@ -3901,12 +3909,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3956,19 +3964,15 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Tanner</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
@@ -4015,19 +4019,15 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
@@ -4078,17 +4078,17 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Tanner</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
@@ -4141,17 +4141,17 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Carlie</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
@@ -4204,12 +4204,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4267,12 +4267,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4330,12 +4330,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4391,9 +4391,21 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
@@ -4442,9 +4454,21 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4482,11 +4506,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
@@ -4513,11 +4533,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
@@ -4550,7 +4566,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4589,7 +4605,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>36500 AURORA DRIVE, SUITE 100</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4628,7 +4644,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
+          <t>AURORA OUTPATIENT RX #1335, SUMMIT</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4663,7 +4679,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGHT EMERGENCY ENTRANCE, CLINIC DOORS OPEN AT 6:00 AM</t>
+          <t>36500 AURORA DRIVE, SUITE 100</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4698,7 +4714,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/ZCBnSuQHz8ghtBeU6</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4729,7 +4745,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGHT EMERGENCY ENTRANCE, CLINIC DOORS OPEN AT 6:00 AM</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -4772,7 +4788,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>AURORA VISION #1162, SUMMIT</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -4803,7 +4819,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>36500 AURORA DR  SUITE 130</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -4834,7 +4850,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+          <t>AURORA VISION #1162, SUMMIT</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -4863,7 +4879,11 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>36500 AURORA DR  SUITE 130</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -4889,21 +4909,13 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/uVd8GmA8otk</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
@@ -4928,16 +4940,8 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
@@ -4963,9 +4967,21 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
@@ -4990,8 +5006,16 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr"/>
@@ -5018,11 +5042,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
@@ -5049,11 +5069,7 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -5082,7 +5098,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5113,7 +5129,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>1575 N RIVERCENTER DRIVE</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5144,7 +5160,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
+          <t>AURORA OUTPATIENT RX #1110, MILWAUKEE</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5173,7 +5189,11 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>1575 N RIVERCENTER DRIVE</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -5199,21 +5219,13 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/rULfaGpqQPG2</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
@@ -5238,16 +5250,8 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -5275,17 +5279,17 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>@ Store (train Ian, bring Modas equip)</t>
+          <t>Santa Fe available, Equip</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
@@ -5303,6 +5307,80 @@
       <c r="X103" t="inlineStr"/>
       <c r="Y103" t="inlineStr"/>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>@ Store (train Ian, bring Modas equip)</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -4745,7 +4745,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGHT EMERGENCY ENTRANCE, CLINIC DOORS OPEN AT 6:00 AM</t>
+          <t>IF YOU ARRIVE BEFORE 6:00 AM ENTER THROUGH EMERGENCY ENTRANCE, CLINIC DOORS OPEN AT 6:00 AM</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>

--- a/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
+++ b/07-20-25 to 07-26-25 Milwaukee Schedule.xlsx
@@ -2670,7 +2670,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Tanner</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2730,21 +2730,9 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
@@ -2853,7 +2841,11 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
@@ -2910,7 +2902,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2966,7 +2958,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3034,7 +3026,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
+          <t>600 WALNUT RIDGE DR</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3093,7 +3085,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>600 WALNUT RIDGE DR</t>
+          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3139,11 +3131,7 @@
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
-        </is>
-      </c>
+      <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
@@ -3182,9 +3170,21 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
@@ -3226,21 +3226,9 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
